--- a/autotest/Web/interfacetest/upload/slotinterface.xlsx
+++ b/autotest/Web/interfacetest/upload/slotinterface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>id</t>
   </si>
@@ -39,46 +39,41 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://slots-team-test-new.tuanguwen.com:7310/SlotServer/tpane</t>
+    <t>http://slots-team-test-new.tuanguwen.com:7310/SlotServer/tpanel</t>
   </si>
   <si>
     <t>{
-        "playerId" : 22345,
-        "subjectId":'38',
+        "playerId" : "25001",
+        "subjectId":"38",
         "panels" : [
             [
-                [1008,1001,1008,2],   
-                [1002,1008,2,1010],
-                [1007,1002,1005,2],
-                [1009,1002,1010,1003],
-                [1003,1009,1001,1005]
+                [3,1000,3], 
+                [3,1000,3],
+                [3,1000,3]
             ],
             [
-                [1004,1007,1001,1008],  
-                [1005,1004,1006,1],
-                [1007,1002,1005,2],
-                [1,1,1,1],
-                [1002,1006,1003,1009]
+                [3,1000,3], 
+                [3,1000,3],
+                [3,1,3]
             ],
             [
-                [1004,1006,1000,1009],  
-                [1000,1000,1000,1009],
-                [1005,1004,1000,1001],
-                [1000,1000,1000,1000],
-                [1008,1006,1,1007]
+                [3,1000,3], 
+                [3,1,3],
+                [3,1,3]
             ],
             [
-                [1008,1001,1008,2],    
-                [1002,1008,1000,1010],
-                [1007,1002,1005,2],
-                [1009,1002,1010,1003],
-                [1003,1009,1001,1005]
+                [3,1000,3],  
+                [3,1001,3],
+                [3,1002,3]
             ]
         ]
-}</t>
+    }</t>
   </si>
   <si>
     <t>test_7</t>
+  </si>
+  <si>
+    <t>http://slots-team-test-new.tuanguwen.com:7310/SlotServer/tpane</t>
   </si>
   <si>
     <t>{
@@ -115,9 +110,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,6 +141,119 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,119 +266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,49 +276,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,127 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,45 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,22 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +523,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,8 +1076,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1109,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:5">
+    <row r="2" ht="351" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1137,10 +1132,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="4:4">

--- a/autotest/Web/interfacetest/upload/slotinterface.xlsx
+++ b/autotest/Web/interfacetest/upload/slotinterface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20880" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>id</t>
   </si>
@@ -30,10 +30,16 @@
     <t>url</t>
   </si>
   <si>
+    <t>playerid</t>
+  </si>
+  <si>
+    <t>subjectid</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>test_Forest_Mania</t>
+    <t>test_001</t>
   </si>
   <si>
     <t>post</t>
@@ -42,66 +48,56 @@
     <t>http://slots-team-test-new.tuanguwen.com:7310/SlotServer/tpanel</t>
   </si>
   <si>
-    <t>{
-        "playerId" : "25001",
-        "subjectId":"38",
-        "panels" : [
-            [
-                [3,1000,3], 
-                [3,1000,3],
-                [3,1000,3]
-            ],
-            [
-                [3,1000,3], 
-                [3,1000,3],
-                [3,1,3]
-            ],
-            [
-                [3,1000,3], 
-                [3,1,3],
-                [3,1,3]
-            ],
-            [
-                [3,1000,3],  
-                [3,1001,3],
-                [3,1002,3]
-            ]
-        ]
-    }</t>
-  </si>
-  <si>
-    <t>test_7</t>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ [[3,1000,3], [3,1000,3], [3,1000,3]],
+[[3,1000,3], [3,1000,3],[3,1,3]],
+[ [3,1000,3],  [3,1,3],[3,1,3] ],
+[ [3,1000,3],[3,1001,3],[3,1002,3]]]
+</t>
+  </si>
+  <si>
+    <t>test_002</t>
   </si>
   <si>
     <t>http://slots-team-test-new.tuanguwen.com:7310/SlotServer/tpane</t>
   </si>
   <si>
-    <t>{
-        "playerId" : 87676,
-        "subjectId":43,
-        "panels" : [
-            [
-                [3,1000,3],     
-                [3,1000,3],
-                [3,1000,3]
-            ],
-            [
-                [3,1000,3],    
-                [3,1000,3],
-                [3,1,3]
-            ],
-            [
-                [3,1000,3],    
-                [3,1,3],
-                [3,1,3]
-            ],
-            [
-                [3,1000,3],   
-                [3,1001,3],
-                [3,1002,3]
-            ]
-        ]
-    }</t>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>test_003</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>test_004</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>test_005</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -114,7 +110,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +119,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -132,30 +134,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,16 +221,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,15 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,50 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +489,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +528,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -535,11 +539,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,148 +595,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,20 +1094,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="69.375" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,55 +1123,133 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="351" spans="1:5">
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="351" spans="1:5">
+    <row r="3" ht="67.5" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+    <row r="5" ht="67.5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="4:4">
-      <c r="D6" s="2"/>
+    <row r="6" ht="67.5" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
+    <row r="7" spans="4:6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
